--- a/Lnco/Input/Config.xlsx
+++ b/Lnco/Input/Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1528EA-8419-41AA-A18B-6AD49C75CDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4E124-AC34-44C8-A432-F39F972626B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="405">
   <si>
     <t>Name</t>
   </si>
@@ -1486,42 +1486,6 @@
     <t>Vendor_Wise_Concentration_sheetname</t>
   </si>
   <si>
-    <t>Purchase Type Wise Comparatives1</t>
-  </si>
-  <si>
-    <t>Month Type Wise Comparatives1</t>
-  </si>
-  <si>
-    <t>Plant Type Wise Comparatives1</t>
-  </si>
-  <si>
-    <t>DOM&amp;IMP Type Wise Comparatives1</t>
-  </si>
-  <si>
-    <t>Purchase Wise Concentration1</t>
-  </si>
-  <si>
-    <t>Month Wise Concentration1</t>
-  </si>
-  <si>
-    <t>Plant Wise Concentration1</t>
-  </si>
-  <si>
-    <t>Dom&amp;Imp Wise Concentration1</t>
-  </si>
-  <si>
-    <t>Duplication Of Vendor1</t>
-  </si>
-  <si>
-    <t>Average Day Purchase1</t>
-  </si>
-  <si>
-    <t>SMP from DVnDP1</t>
-  </si>
-  <si>
-    <t>Unit Price Comparison1</t>
-  </si>
-  <si>
     <t>C:\Users\Dell\PycharmProjects\L &amp; CO Final Demo to Client\output\Vendor_Wise_Comparitives.xlsx</t>
   </si>
   <si>
@@ -1573,10 +1537,34 @@
     <t>C:\Users\Dell\PycharmProjects\L &amp; CO Final Demo to Client\output\Vendor_Wise_Concentration.xlsx</t>
   </si>
   <si>
-    <t>Vendor Type Wise Comparitives1</t>
-  </si>
-  <si>
     <t>C:\Users\Dell\PycharmProjects\L &amp; CO Final Demo to Client\output\Average day purchase.xlsx</t>
+  </si>
+  <si>
+    <t>Vendor Type Wise Comparitives</t>
+  </si>
+  <si>
+    <t>SMP from DVnDP</t>
+  </si>
+  <si>
+    <t>Average Day Purchase</t>
+  </si>
+  <si>
+    <t>Duplication Of Vendor</t>
+  </si>
+  <si>
+    <t>Dom&amp;Imp Wise Concentration</t>
+  </si>
+  <si>
+    <t>Purchase Wise Concentration</t>
+  </si>
+  <si>
+    <t>DOM&amp;IMP Type Wise Comparatives</t>
+  </si>
+  <si>
+    <t>Plant Type Wise Comparatives</t>
+  </si>
+  <si>
+    <t>Month Type Wise Comparatives</t>
   </si>
 </sst>
 </file>
@@ -2025,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977021D-0352-4A40-B3B3-4453D33927D7}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2048,7 +2036,7 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2056,7 +2044,7 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2064,7 +2052,7 @@
         <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2072,7 +2060,7 @@
         <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2080,7 +2068,7 @@
         <v>95</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2088,7 +2076,7 @@
         <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2096,7 +2084,7 @@
         <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2104,7 +2092,7 @@
         <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2112,7 +2100,7 @@
         <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2120,7 +2108,7 @@
         <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2128,7 +2116,7 @@
         <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2136,7 +2124,7 @@
         <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2144,7 +2132,7 @@
         <v>376</v>
       </c>
       <c r="B17" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4035,7 +4023,7 @@
         <v>359</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4367,7 +4355,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="15" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>4</v>
@@ -4375,10 +4363,10 @@
     </row>
     <row r="4" spans="1:2" ht="15.6">
       <c r="A4" s="15" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6">
@@ -4387,15 +4375,15 @@
     </row>
     <row r="6" spans="1:2" ht="15.6">
       <c r="A6" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>393</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="15" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>18</v>
@@ -4439,10 +4427,10 @@
     </row>
     <row r="13" spans="1:2" ht="15.6">
       <c r="A13" s="13" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6">
@@ -4450,7 +4438,7 @@
         <v>370</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4460,7 +4448,7 @@
     <row r="16" spans="1:2" ht="15.6">
       <c r="A16" s="25"/>
       <c r="B16" s="16" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4470,13 +4458,13 @@
     <row r="18" spans="1:2" ht="15.6">
       <c r="A18" s="25"/>
       <c r="B18" s="16" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6">
       <c r="A19" s="25"/>
       <c r="B19" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6">
@@ -4484,7 +4472,7 @@
         <v>371</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6">
@@ -4492,7 +4480,7 @@
         <v>372</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4502,7 +4490,7 @@
     <row r="23" spans="1:2" ht="15.6">
       <c r="A23" s="25"/>
       <c r="B23" s="16" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4512,13 +4500,13 @@
     <row r="25" spans="1:2" ht="15.6">
       <c r="A25" s="25"/>
       <c r="B25" s="16" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.6">
       <c r="A26" s="25"/>
       <c r="B26" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.6">
@@ -4526,7 +4514,7 @@
         <v>373</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.6">
@@ -4534,7 +4522,7 @@
         <v>374</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4544,7 +4532,7 @@
     <row r="30" spans="1:2" ht="15.6">
       <c r="A30" s="26"/>
       <c r="B30" s="16" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4554,13 +4542,13 @@
     <row r="32" spans="1:2" ht="15.6">
       <c r="A32" s="26"/>
       <c r="B32" s="16" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6">
       <c r="A33" s="27"/>
       <c r="B33" s="16" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5256,7 +5244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C201869-5038-4C77-B549-4A68ADD2BF37}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -5375,7 +5363,7 @@
         <v>217</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:2">
